--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85332.88164471566</v>
+        <v>-95276.23025962562</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34114644.17356064</v>
+        <v>33885565.57604097</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15226912.63614507</v>
+        <v>14019350.7163774</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1820670.189364965</v>
+        <v>2366641.374458564</v>
       </c>
     </row>
     <row r="11">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>45.46100637279427</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.262548922260276</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.873653090726851</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H18" t="n">
-        <v>3.262548922260276</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>126.0091317304328</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>2.873653090726851</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X18" t="n">
-        <v>3.262548922260276</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.262548922260276</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>73.24009032731577</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.262548922260276</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>3.262548922260276</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>3.262548922260276</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>330.6695081495072</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T20" t="n">
-        <v>3.262548922260276</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.262548922260276</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T21" t="n">
-        <v>2.873653090726851</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>174.5263742585034</v>
       </c>
       <c r="V21" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X21" t="n">
-        <v>3.262548922260276</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="22">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>122.827935427222</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.262548922260276</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>3.262548922260276</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>178.4237742066804</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>52.01429422411404</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T24" t="n">
-        <v>126.0091317304331</v>
+        <v>126.0091317304332</v>
       </c>
       <c r="U24" t="n">
         <v>174.5263742585036</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>68.63936890843654</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>84.93117419743035</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6161358490523</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F26" t="n">
-        <v>126.6598439315262</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G26" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>317.9541921376114</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T27" t="n">
         <v>126.0091317304331</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.704657036075362</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>202.7246821462067</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71340015426154</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>257.3791229730838</v>
       </c>
       <c r="H29" t="n">
         <v>272.6207125031721</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>174.5263742585036</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586204</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W30" t="n">
         <v>183.4695267241379</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>112.3949157795132</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.1108283213887</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3031,17 +3031,17 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="D32" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="E32" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="F32" t="n">
-        <v>368.3379045390509</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>188.3877867239918</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T33" t="n">
-        <v>126.0091317304331</v>
+        <v>126.0091317304332</v>
       </c>
       <c r="U33" t="n">
         <v>174.5263742585036</v>
@@ -3195,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>16.16448673103504</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>22.62895623136073</v>
       </c>
     </row>
     <row r="35">
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>315.8238678379124</v>
+        <v>40.70822517976862</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C36" t="n">
-        <v>105.3918965517243</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D36" t="n">
         <v>94.13938596491228</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>79.35348758163293</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>164.3368820352044</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>29.96044885662929</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>338.7054872701706</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H39" t="n">
-        <v>34.44698820166521</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>135.9028272103763</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>151.0281183205587</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>418.1856318563247</v>
       </c>
       <c r="E41" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>315.8238678379121</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>237.618625497493</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.81976830925504</v>
+        <v>83.81976830925467</v>
       </c>
       <c r="H42" t="n">
         <v>34.44698820166514</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>26.67921246225772</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.3388892342509</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>123.5164527612909</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>324.6350067272861</v>
+        <v>175.5253682097816</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.60563018141188</v>
+        <v>49.60563018141161</v>
       </c>
       <c r="T45" t="n">
         <v>126.0091317304331</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>127.4319506230067</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>194.4291253449093</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2610039137808221</v>
+        <v>901.8394536587788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2610039137808221</v>
+        <v>479.429724510976</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2610039137808221</v>
+        <v>479.429724510976</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2610039137808221</v>
+        <v>479.429724510976</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2610039137808221</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2610039137808221</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J17" t="n">
-        <v>1.160310701713749</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K17" t="n">
-        <v>2.508138455589629</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L17" t="n">
-        <v>4.180237967355344</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M17" t="n">
-        <v>6.040770853278583</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N17" t="n">
-        <v>7.931409106423309</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O17" t="n">
-        <v>9.71668519667894</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P17" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>12.38460615143387</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R17" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V17" t="n">
-        <v>9.754691727162038</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="W17" t="n">
-        <v>6.459187765282971</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="X17" t="n">
-        <v>3.163683803403904</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2610039137808221</v>
+        <v>901.8394536587788</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.556507875659889</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C18" t="n">
-        <v>3.556507875659889</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D18" t="n">
-        <v>3.556507875659889</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E18" t="n">
-        <v>3.556507875659889</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F18" t="n">
-        <v>3.556507875659889</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G18" t="n">
-        <v>3.556507875659889</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I18" t="n">
-        <v>1.072177809113711</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J18" t="n">
-        <v>1.607798771138296</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K18" t="n">
-        <v>2.523260307689948</v>
+        <v>264.0535687076973</v>
       </c>
       <c r="L18" t="n">
-        <v>3.754211318554211</v>
+        <v>416.9883711887013</v>
       </c>
       <c r="M18" t="n">
-        <v>5.190673088024536</v>
+        <v>595.4560722154179</v>
       </c>
       <c r="N18" t="n">
-        <v>6.665153726207343</v>
+        <v>778.6472822410932</v>
       </c>
       <c r="O18" t="n">
-        <v>8.014015446969966</v>
+        <v>946.2314501067033</v>
       </c>
       <c r="P18" t="n">
-        <v>9.096595895631884</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.820272256003433</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R18" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S18" t="n">
-        <v>13.05019568904111</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>13.05019568904111</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U18" t="n">
-        <v>13.05019568904111</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V18" t="n">
-        <v>13.05019568904111</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>10.14751579941802</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X18" t="n">
-        <v>6.852011837538956</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.556507875659889</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2610039137808221</v>
+        <v>449.1305708105545</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2610039137808221</v>
+        <v>449.1305708105545</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2610039137808221</v>
+        <v>449.1305708105545</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2610039137808221</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2610039137808221</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J19" t="n">
-        <v>3.490927346818495</v>
+        <v>75.20378455015356</v>
       </c>
       <c r="K19" t="n">
-        <v>6.720850779856169</v>
+        <v>350.8141989856835</v>
       </c>
       <c r="L19" t="n">
-        <v>7.427480221213296</v>
+        <v>438.6066725182725</v>
       </c>
       <c r="M19" t="n">
-        <v>8.172521890365854</v>
+        <v>531.1715264452893</v>
       </c>
       <c r="N19" t="n">
-        <v>8.899848133875976</v>
+        <v>621.535395038543</v>
       </c>
       <c r="O19" t="n">
-        <v>9.571651640921385</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
-        <v>10.14649559884087</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R19" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U19" t="n">
-        <v>10.14751579941802</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V19" t="n">
-        <v>6.852011837538956</v>
+        <v>1385.787019295729</v>
       </c>
       <c r="W19" t="n">
-        <v>3.556507875659889</v>
+        <v>1113.760614882021</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2610039137808221</v>
+        <v>868.3688602154334</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2610039137808221</v>
+        <v>640.9491895295416</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.754691727162038</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="C20" t="n">
-        <v>6.459187765282971</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="D20" t="n">
-        <v>3.163683803403904</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2610039137808221</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2610039137808221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2610039137808221</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2610039137808254</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J20" t="n">
-        <v>1.160310701713753</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K20" t="n">
-        <v>2.508138455589633</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L20" t="n">
-        <v>4.180237967355349</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M20" t="n">
-        <v>6.040770853278586</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N20" t="n">
-        <v>7.931409106423309</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O20" t="n">
-        <v>9.71668519667894</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P20" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q20" t="n">
-        <v>12.38460615143387</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R20" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>9.754691727162038</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="U20" t="n">
-        <v>9.754691727162038</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="V20" t="n">
-        <v>9.754691727162038</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W20" t="n">
-        <v>9.754691727162038</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X20" t="n">
-        <v>9.754691727162038</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.754691727162038</v>
+        <v>1042.893577318941</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2610039137808221</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2610039137808221</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2610039137808221</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2610039137808221</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2610039137808221</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2610039137808221</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I21" t="n">
-        <v>1.072177809113714</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J21" t="n">
-        <v>1.607798771138299</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K21" t="n">
-        <v>2.523260307689951</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L21" t="n">
-        <v>3.754211318554213</v>
+        <v>715.4830229944562</v>
       </c>
       <c r="M21" t="n">
-        <v>5.190673088024537</v>
+        <v>893.9507240211726</v>
       </c>
       <c r="N21" t="n">
-        <v>6.665153726207345</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O21" t="n">
-        <v>8.014015446969967</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P21" t="n">
-        <v>9.096595895631886</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.820272256003433</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R21" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S21" t="n">
-        <v>13.05019568904111</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T21" t="n">
-        <v>10.14751579941802</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U21" t="n">
-        <v>10.14751579941802</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V21" t="n">
-        <v>6.852011837538956</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W21" t="n">
-        <v>6.852011837538956</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>3.556507875659889</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.556507875659889</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2610039137808221</v>
+        <v>676.5502414964462</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2610039137808221</v>
+        <v>503.9885299796712</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2610039137808221</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2610039137808221</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J22" t="n">
-        <v>3.490927346818495</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K22" t="n">
-        <v>6.720850779856169</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
-        <v>7.427480221213296</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M22" t="n">
-        <v>8.172521890365854</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N22" t="n">
-        <v>8.899848133875976</v>
+        <v>775.8694436693074</v>
       </c>
       <c r="O22" t="n">
-        <v>9.571651640921385</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P22" t="n">
-        <v>10.14649559884086</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R22" t="n">
-        <v>10.14751579941802</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S22" t="n">
-        <v>10.14751579941802</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T22" t="n">
-        <v>10.14751579941802</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U22" t="n">
-        <v>6.852011837538956</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V22" t="n">
-        <v>3.556507875659889</v>
+        <v>1385.787019295729</v>
       </c>
       <c r="W22" t="n">
-        <v>3.556507875659889</v>
+        <v>1113.760614882021</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2610039137808221</v>
+        <v>868.3688602154334</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2610039137808221</v>
+        <v>868.3688602154334</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>731.2390367702201</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="C23" t="n">
-        <v>308.8293076224172</v>
+        <v>1036.145279753613</v>
       </c>
       <c r="D23" t="n">
-        <v>308.8293076224172</v>
+        <v>1036.145279753613</v>
       </c>
       <c r="E23" t="n">
-        <v>308.8293076224172</v>
+        <v>1036.145279753613</v>
       </c>
       <c r="F23" t="n">
-        <v>308.8293076224172</v>
+        <v>613.7355506058104</v>
       </c>
       <c r="G23" t="n">
-        <v>308.8293076224172</v>
+        <v>213.6808851007084</v>
       </c>
       <c r="H23" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524189</v>
+        <v>83.79828774524246</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073324</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6016,25 +6016,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S23" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T23" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U23" t="n">
-        <v>1146.395677971862</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V23" t="n">
-        <v>783.7787279056888</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="W23" t="n">
-        <v>731.2390367702201</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="X23" t="n">
-        <v>731.2390367702201</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="Y23" t="n">
-        <v>731.2390367702201</v>
+        <v>1458.555008901416</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L24" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M24" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N24" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O24" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P24" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.45485054850599</v>
+        <v>441.227250730866</v>
       </c>
       <c r="C25" t="n">
-        <v>33.45485054850599</v>
+        <v>268.6655392140909</v>
       </c>
       <c r="D25" t="n">
-        <v>33.45485054850599</v>
+        <v>102.7875464156136</v>
       </c>
       <c r="E25" t="n">
-        <v>33.45485054850599</v>
+        <v>102.7875464156136</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45485054850599</v>
+        <v>102.7875464156136</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45485054850599</v>
+        <v>102.7875464156136</v>
       </c>
       <c r="H25" t="n">
         <v>33.45485054850599</v>
@@ -6156,13 +6156,13 @@
         <v>592.940721149037</v>
       </c>
       <c r="M25" t="n">
-        <v>1006.944496686799</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N25" t="n">
-        <v>1097.308365280052</v>
+        <v>775.8694436693074</v>
       </c>
       <c r="O25" t="n">
-        <v>1180.774023741878</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P25" t="n">
         <v>1449.542946114066</v>
@@ -6174,25 +6174,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>1586.95346257941</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>1343.648325665528</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U25" t="n">
-        <v>1065.248188444263</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V25" t="n">
-        <v>778.2926803146937</v>
+        <v>958.6454098111619</v>
       </c>
       <c r="W25" t="n">
-        <v>506.2662759009852</v>
+        <v>686.6190053974535</v>
       </c>
       <c r="X25" t="n">
-        <v>260.8745212343977</v>
+        <v>441.227250730866</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.45485054850599</v>
+        <v>441.227250730866</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>836.8232094219902</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="C26" t="n">
-        <v>836.8232094219902</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="D26" t="n">
-        <v>836.8232094219902</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="E26" t="n">
-        <v>836.8232094219902</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F26" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G26" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H26" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524243</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J26" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6247,7 +6247,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q26" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R26" t="n">
         <v>1672.742527425299</v>
@@ -6262,16 +6262,16 @@
         <v>1199.440159488164</v>
       </c>
       <c r="V26" t="n">
-        <v>836.8232094219902</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W26" t="n">
-        <v>836.8232094219902</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X26" t="n">
-        <v>836.8232094219902</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="Y26" t="n">
-        <v>836.8232094219902</v>
+        <v>878.2743088441118</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L27" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M27" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N27" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O27" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P27" t="n">
-        <v>1421.927499955579</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>238.5414622752818</v>
+        <v>545.7808532138395</v>
       </c>
       <c r="C28" t="n">
-        <v>238.5414622752818</v>
+        <v>541.0286743895209</v>
       </c>
       <c r="D28" t="n">
-        <v>238.5414622752818</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E28" t="n">
-        <v>238.5414622752818</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F28" t="n">
-        <v>238.5414622752818</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G28" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H28" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I28" t="n">
         <v>33.45485054850599</v>
@@ -6390,19 +6390,19 @@
         <v>143.8101078806224</v>
       </c>
       <c r="L28" t="n">
-        <v>304.3051044129577</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M28" t="n">
-        <v>718.3088799507193</v>
+        <v>324.1674353402283</v>
       </c>
       <c r="N28" t="n">
-        <v>1132.312655488481</v>
+        <v>738.1712108779898</v>
       </c>
       <c r="O28" t="n">
-        <v>1546.316431026242</v>
+        <v>1152.174986415751</v>
       </c>
       <c r="P28" t="n">
-        <v>1617.735720978399</v>
+        <v>1566.178761953513</v>
       </c>
       <c r="Q28" t="n">
         <v>1667.182735391305</v>
@@ -6414,22 +6414,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U28" t="n">
-        <v>1002.295781026849</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V28" t="n">
-        <v>715.3402728972799</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="W28" t="n">
-        <v>443.3138684835714</v>
+        <v>965.0191426187184</v>
       </c>
       <c r="X28" t="n">
-        <v>238.5414622752818</v>
+        <v>965.0191426187184</v>
       </c>
       <c r="Y28" t="n">
-        <v>238.5414622752818</v>
+        <v>737.5994719328266</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1214.842591320031</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="C29" t="n">
-        <v>1214.842591320031</v>
+        <v>991.2179488642441</v>
       </c>
       <c r="D29" t="n">
-        <v>1131.293702275322</v>
+        <v>568.8082197164413</v>
       </c>
       <c r="E29" t="n">
-        <v>1131.293702275322</v>
+        <v>568.8082197164413</v>
       </c>
       <c r="F29" t="n">
-        <v>708.8839731275193</v>
+        <v>568.8082197164413</v>
       </c>
       <c r="G29" t="n">
         <v>308.8293076224172</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524184</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073323</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6490,25 +6490,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T29" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U29" t="n">
-        <v>1619.698045908998</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V29" t="n">
-        <v>1619.698045908998</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="W29" t="n">
-        <v>1214.842591320031</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="X29" t="n">
-        <v>1214.842591320031</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="Y29" t="n">
-        <v>1214.842591320031</v>
+        <v>1413.627678012047</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C30" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D30" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E30" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F30" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G30" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I30" t="n">
         <v>83.76937108752902</v>
@@ -6545,22 +6545,22 @@
         <v>150.3155498622651</v>
       </c>
       <c r="K30" t="n">
-        <v>264.0535687076974</v>
+        <v>281.1551766414592</v>
       </c>
       <c r="L30" t="n">
-        <v>416.9883711887014</v>
+        <v>434.0899791224633</v>
       </c>
       <c r="M30" t="n">
-        <v>595.456072215418</v>
+        <v>612.5576801491798</v>
       </c>
       <c r="N30" t="n">
-        <v>778.6472822410933</v>
+        <v>795.7488901748552</v>
       </c>
       <c r="O30" t="n">
-        <v>946.2314501067034</v>
+        <v>963.3330580404652</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.834127233838</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6584,10 +6584,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X30" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y30" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>371.8945548637583</v>
+        <v>364.3216203512771</v>
       </c>
       <c r="C31" t="n">
-        <v>199.3328433469833</v>
+        <v>364.3216203512771</v>
       </c>
       <c r="D31" t="n">
-        <v>33.45485054850598</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="E31" t="n">
-        <v>33.45485054850598</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F31" t="n">
-        <v>33.45485054850598</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J31" t="n">
         <v>161.7834697148434</v>
@@ -6627,16 +6627,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>769.1447895942083</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M31" t="n">
-        <v>861.7096435212251</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N31" t="n">
-        <v>952.0735121144787</v>
+        <v>775.8694436693074</v>
       </c>
       <c r="O31" t="n">
-        <v>1035.539170576304</v>
+        <v>1189.873219207069</v>
       </c>
       <c r="P31" t="n">
         <v>1449.542946114066</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T31" t="n">
-        <v>1280.695918248114</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U31" t="n">
-        <v>1002.295781026849</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V31" t="n">
-        <v>715.3402728972794</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="W31" t="n">
-        <v>715.3402728972794</v>
+        <v>1028.951664422744</v>
       </c>
       <c r="X31" t="n">
-        <v>715.3402728972794</v>
+        <v>783.559909756156</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.7131735827454</v>
+        <v>556.1402390702642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1672.742527425299</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.332798277497</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D32" t="n">
-        <v>827.9230691296937</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E32" t="n">
-        <v>405.5133399818907</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F32" t="n">
         <v>33.45485054850599</v>
@@ -6697,19 +6697,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J32" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L32" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6733,19 +6733,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U32" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V32" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W32" t="n">
-        <v>1672.742527425299</v>
+        <v>646.1552733569067</v>
       </c>
       <c r="X32" t="n">
-        <v>1672.742527425299</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="Y32" t="n">
-        <v>1672.742527425299</v>
+        <v>455.8645796963089</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C33" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E33" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F33" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G33" t="n">
         <v>68.24978812594551</v>
@@ -6779,25 +6779,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J33" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K33" t="n">
-        <v>605.2485493631991</v>
+        <v>281.1551766414591</v>
       </c>
       <c r="L33" t="n">
-        <v>758.1833518442032</v>
+        <v>434.0899791224632</v>
       </c>
       <c r="M33" t="n">
-        <v>936.6510528709197</v>
+        <v>612.5576801491798</v>
       </c>
       <c r="N33" t="n">
-        <v>1119.842262896595</v>
+        <v>795.7488901748552</v>
       </c>
       <c r="O33" t="n">
-        <v>1287.426430762205</v>
+        <v>963.3330580404652</v>
       </c>
       <c r="P33" t="n">
-        <v>1421.927499955579</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.8379027716</v>
@@ -6821,10 +6821,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X33" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y33" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1088.435001382335</v>
+        <v>548.6016089020022</v>
       </c>
       <c r="C34" t="n">
-        <v>915.8732898655595</v>
+        <v>376.0398973852271</v>
       </c>
       <c r="D34" t="n">
-        <v>749.9952970670822</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E34" t="n">
-        <v>580.2372933178194</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F34" t="n">
-        <v>403.5302392795757</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G34" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H34" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I34" t="n">
         <v>33.45485054850599</v>
@@ -6864,16 +6864,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L34" t="n">
-        <v>592.940721149037</v>
+        <v>790.2903535690692</v>
       </c>
       <c r="M34" t="n">
-        <v>685.5055750760537</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N34" t="n">
-        <v>775.8694436693074</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O34" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P34" t="n">
         <v>1449.542946114066</v>
@@ -6888,22 +6888,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T34" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U34" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V34" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="W34" t="n">
-        <v>1524.001055161996</v>
+        <v>1008.669513834406</v>
       </c>
       <c r="X34" t="n">
-        <v>1507.673290787214</v>
+        <v>763.2777591678184</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.253620101322</v>
+        <v>740.4202276209894</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C35" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D35" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F35" t="n">
         <v>33.45485054850599</v>
@@ -6934,19 +6934,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524252</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L35" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6958,31 +6958,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q35" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R35" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S35" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T35" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U35" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V35" t="n">
-        <v>1619.698045908998</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="W35" t="n">
-        <v>1619.698045908998</v>
+        <v>905.2701227701591</v>
       </c>
       <c r="X35" t="n">
-        <v>1300.684037991915</v>
+        <v>864.1507033966554</v>
       </c>
       <c r="Y35" t="n">
-        <v>1300.684037991915</v>
+        <v>455.8645796963089</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C36" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D36" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E36" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F36" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G36" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H36" t="n">
         <v>33.45485054850599</v>
@@ -7016,25 +7016,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
-        <v>167.4171577960269</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>281.1551766414592</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L36" t="n">
-        <v>434.0899791224633</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M36" t="n">
-        <v>612.5576801491798</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N36" t="n">
-        <v>795.7488901748552</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O36" t="n">
-        <v>963.3330580404652</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.834127233839</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7046,7 +7046,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T36" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U36" t="n">
         <v>1319.064612101715</v>
@@ -7055,13 +7055,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W36" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X36" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y36" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.4517010891165</v>
+        <v>625.0637233015518</v>
       </c>
       <c r="C37" t="n">
-        <v>199.4517010891165</v>
+        <v>625.0637233015518</v>
       </c>
       <c r="D37" t="n">
-        <v>199.4517010891165</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E37" t="n">
-        <v>199.4517010891165</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F37" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G37" t="n">
         <v>33.45485054850599</v>
@@ -7095,22 +7095,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J37" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K37" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L37" t="n">
-        <v>790.2903535690692</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M37" t="n">
-        <v>1204.294129106831</v>
+        <v>324.1674353402283</v>
       </c>
       <c r="N37" t="n">
-        <v>1294.657997700085</v>
+        <v>621.5353950385435</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
         <v>1449.542946114066</v>
@@ -7128,19 +7128,19 @@
         <v>1429.437390511417</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.037253290152</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V37" t="n">
-        <v>864.0817451605828</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="W37" t="n">
-        <v>864.0817451605828</v>
+        <v>870.4554779681393</v>
       </c>
       <c r="X37" t="n">
-        <v>618.6899904939953</v>
+        <v>625.0637233015518</v>
       </c>
       <c r="Y37" t="n">
-        <v>391.2703198081036</v>
+        <v>625.0637233015518</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>486.1276593494698</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C38" t="n">
-        <v>63.71793020166689</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D38" t="n">
-        <v>63.71793020166689</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E38" t="n">
-        <v>63.71793020166689</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F38" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G38" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H38" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524205</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073326</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7192,10 +7192,10 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P38" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q38" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R38" t="n">
         <v>1672.742527425299</v>
@@ -7207,19 +7207,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U38" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V38" t="n">
-        <v>1310.125577359126</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W38" t="n">
-        <v>905.2701227701591</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="X38" t="n">
-        <v>486.1276593494698</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="Y38" t="n">
-        <v>486.1276593494698</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C39" t="n">
-        <v>425.5107626718882</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E39" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F39" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G39" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H39" t="n">
         <v>33.45485054850599</v>
@@ -7283,7 +7283,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T39" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U39" t="n">
         <v>1319.064612101715</v>
@@ -7292,13 +7292,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W39" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X39" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.7304335892901</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="C40" t="n">
-        <v>33.45485054850599</v>
+        <v>821.1786986017697</v>
       </c>
       <c r="D40" t="n">
-        <v>33.45485054850599</v>
+        <v>655.3007058032924</v>
       </c>
       <c r="E40" t="n">
-        <v>33.45485054850599</v>
+        <v>485.5427020540297</v>
       </c>
       <c r="F40" t="n">
-        <v>33.45485054850599</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G40" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H40" t="n">
         <v>33.45485054850599</v>
@@ -7332,25 +7332,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K40" t="n">
-        <v>505.1482476164479</v>
+        <v>192.7956718448434</v>
       </c>
       <c r="L40" t="n">
-        <v>769.144789594209</v>
+        <v>606.799447382605</v>
       </c>
       <c r="M40" t="n">
-        <v>861.7096435212256</v>
+        <v>699.3643013096217</v>
       </c>
       <c r="N40" t="n">
-        <v>952.0735121144794</v>
+        <v>789.7281699028755</v>
       </c>
       <c r="O40" t="n">
-        <v>1035.539170576305</v>
+        <v>1203.731945440637</v>
       </c>
       <c r="P40" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q40" t="n">
         <v>1667.182735391305</v>
@@ -7359,25 +7359,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S40" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T40" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U40" t="n">
-        <v>1394.342390204034</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V40" t="n">
-        <v>1107.386882074465</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W40" t="n">
-        <v>835.3604776607565</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="X40" t="n">
-        <v>589.968722994169</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="Y40" t="n">
-        <v>362.5490523082772</v>
+        <v>993.7404101185448</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.698045908998</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="C41" t="n">
-        <v>1197.288316761195</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="D41" t="n">
-        <v>774.8785876133918</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E41" t="n">
-        <v>352.468858465589</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F41" t="n">
-        <v>33.45485054850598</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G41" t="n">
         <v>33.45485054850598</v>
@@ -7408,7 +7408,7 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J41" t="n">
         <v>195.5292216073324</v>
@@ -7420,7 +7420,7 @@
         <v>570.7285396968683</v>
       </c>
       <c r="M41" t="n">
-        <v>801.8833353847199</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7438,25 +7438,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S41" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T41" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V41" t="n">
-        <v>1619.698045908998</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="W41" t="n">
-        <v>1619.698045908998</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="X41" t="n">
-        <v>1619.698045908998</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1619.698045908998</v>
+        <v>855.9192452014108</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352455</v>
       </c>
       <c r="C42" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718877</v>
       </c>
       <c r="D42" t="n">
-        <v>330.4204738184413</v>
+        <v>330.420473818441</v>
       </c>
       <c r="E42" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453947</v>
       </c>
       <c r="F42" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615563</v>
       </c>
       <c r="G42" t="n">
         <v>68.24978812594551</v>
@@ -7487,19 +7487,19 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I42" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L42" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M42" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N42" t="n">
         <v>1119.842262896595</v>
@@ -7529,13 +7529,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W42" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969079</v>
       </c>
       <c r="X42" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357879</v>
       </c>
       <c r="Y42" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150086</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>883.3483896555588</v>
+        <v>364.3216203512771</v>
       </c>
       <c r="C43" t="n">
-        <v>710.7866781387837</v>
+        <v>364.3216203512771</v>
       </c>
       <c r="D43" t="n">
-        <v>544.9086853403064</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="E43" t="n">
-        <v>375.1506815910436</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F43" t="n">
         <v>198.4436275527998</v>
@@ -7572,19 +7572,19 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K43" t="n">
-        <v>505.1482476164479</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L43" t="n">
-        <v>769.1447895942085</v>
+        <v>318.1822665779013</v>
       </c>
       <c r="M43" t="n">
-        <v>861.7096435212253</v>
+        <v>732.1860421156628</v>
       </c>
       <c r="N43" t="n">
-        <v>952.0735121144789</v>
+        <v>1146.189817653424</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.539170576305</v>
+        <v>1229.65547611525</v>
       </c>
       <c r="P43" t="n">
         <v>1449.542946114066</v>
@@ -7599,22 +7599,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T43" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U43" t="n">
-        <v>1672.742527425299</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V43" t="n">
-        <v>1672.742527425299</v>
+        <v>864.0817451605824</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.978433727025</v>
+        <v>864.0817451605824</v>
       </c>
       <c r="X43" t="n">
-        <v>1302.586679060438</v>
+        <v>618.6899904939949</v>
       </c>
       <c r="Y43" t="n">
-        <v>1075.167008374546</v>
+        <v>391.2703198081031</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>783.7787279056888</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="C44" t="n">
-        <v>361.3689987578859</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="D44" t="n">
-        <v>361.3689987578859</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="E44" t="n">
-        <v>361.3689987578859</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="F44" t="n">
-        <v>361.3689987578859</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524228</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073328</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847205</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7675,25 +7675,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T44" t="n">
-        <v>1405.510527385115</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U44" t="n">
-        <v>1146.395677971862</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V44" t="n">
-        <v>783.7787279056888</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="W44" t="n">
-        <v>783.7787279056888</v>
+        <v>905.2701227701587</v>
       </c>
       <c r="X44" t="n">
-        <v>783.7787279056888</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="Y44" t="n">
-        <v>783.7787279056888</v>
+        <v>486.1276593494694</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.967223835246</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718883</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184416</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453953</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615569</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I45" t="n">
         <v>83.76937108752902</v>
@@ -7730,22 +7730,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L45" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M45" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N45" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O45" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q45" t="n">
         <v>1511.8379027716</v>
@@ -7757,7 +7757,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
         <v>1319.064612101715</v>
@@ -7766,13 +7766,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357884</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150092</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.9960426433032</v>
+        <v>835.360477660756</v>
       </c>
       <c r="C46" t="n">
-        <v>103.9960426433032</v>
+        <v>662.798766143981</v>
       </c>
       <c r="D46" t="n">
-        <v>103.9960426433032</v>
+        <v>496.9207733455037</v>
       </c>
       <c r="E46" t="n">
-        <v>103.9960426433032</v>
+        <v>327.1627695962409</v>
       </c>
       <c r="F46" t="n">
-        <v>103.9960426433032</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G46" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H46" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J46" t="n">
         <v>161.7834697148434</v>
@@ -7812,16 +7812,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>769.1447895942088</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M46" t="n">
-        <v>861.7096435212254</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144792</v>
+        <v>1099.509350613815</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.539170576305</v>
+        <v>1182.975009075641</v>
       </c>
       <c r="P46" t="n">
         <v>1449.542946114066</v>
@@ -7833,25 +7833,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U46" t="n">
-        <v>1327.607999258048</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V46" t="n">
-        <v>1040.652491128478</v>
+        <v>1107.386882074464</v>
       </c>
       <c r="W46" t="n">
-        <v>768.6260867147696</v>
+        <v>835.360477660756</v>
       </c>
       <c r="X46" t="n">
-        <v>523.2343320481821</v>
+        <v>835.360477660756</v>
       </c>
       <c r="Y46" t="n">
-        <v>295.8146613622903</v>
+        <v>835.360477660756</v>
       </c>
     </row>
   </sheetData>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6222042310422724</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>17.27435144824403</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R18" t="n">
-        <v>2.907001885183224</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.923123287322518</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.704768336622556</v>
+        <v>209.0950415202637</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.531018111331871</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6222042310422755</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>43.13164530277459</v>
       </c>
       <c r="R21" t="n">
-        <v>2.907001885183223</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.923123287322518</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>2.704768336622556</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.531018111331873</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9804,16 +9804,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="P25" t="n">
-        <v>199.3430630505377</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>16.80470271645413</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>73.43689191893563</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>326.9089969136442</v>
       </c>
       <c r="O28" t="n">
-        <v>333.876885935289</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>52.07773638877347</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>17.27435144824381</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>327.3670431532728</v>
@@ -10275,7 +10275,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>177.9839075203751</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10284,10 +10284,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P31" t="n">
-        <v>346.0449349349548</v>
+        <v>190.1519565200417</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>16.80470271645392</v>
+        <v>17.2743514482442</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10512,19 +10512,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>177.9839075203757</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>17.27435144824426</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.3670431532728</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>199.3430630505377</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>209.095041520264</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>16.80470271645393</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>49.48036764062721</v>
       </c>
       <c r="L40" t="n">
-        <v>177.9839075203758</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P40" t="n">
         <v>346.0449349349549</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>177.9839075203753</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>346.0449349349548</v>
+        <v>149.9678586329901</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>177.9839075203755</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>346.0449349349548</v>
+        <v>197.1198455416861</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>378.1277489220901</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.1292424873029</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.5714639696243</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T17" t="n">
-        <v>217.819703146337</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6292234284552</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>355.7282316432514</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>397.5443511208167</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>411.6884898642221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.3296093726162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38.00044053909289</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.71451543789636</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>180.5958736334111</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>150.0562124812485</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>121.9583725063111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23898,19 +23898,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>94.82033338445434</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.5652879271376</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>243.400138899798</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>272.7747557798793</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>280.8234041260135</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>266.0435914473111</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>239.6752881976614</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>430.4984991661506</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>426.5633443025609</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>92.91924714537714</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.5571542240768</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6292234284552</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.8283131467052</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>41.26298946135317</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.71451543789636</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>125.9801222172054</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>150.0562124812485</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>41.39127744327051</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.11412279404073</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.5652879271376</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>243.400138899798</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
-        <v>272.3858599483459</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>280.8234041260135</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>239.6752881976614</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G23" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>94.19693829649174</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>348.792605818963</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24366,10 +24366,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -24381,7 +24381,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
-        <v>133.1999654356588</v>
+        <v>64.56059652722227</v>
       </c>
       <c r="I25" t="n">
         <v>69.83578017384922</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>62.32288334323948</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F26" t="n">
-        <v>296.9289113633581</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>86.24907032573168</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>166.131437365532</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.21315497371495</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D29" t="n">
-        <v>348.8372868230384</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>5.403123438559589</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>138.6749958769672</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T29" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>133.1999654356588</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>156.9112245900582</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.03464565764415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,16 +24919,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>55.25085075583343</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G32" t="n">
         <v>396.054118850051</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>226.5632520624906</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6161358490523</v>
@@ -25137,13 +25137,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7733503888866</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>202.5165177476721</v>
       </c>
     </row>
     <row r="35">
@@ -25162,10 +25162,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>396.054118850051</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
         <v>212.0456433386444</v>
@@ -25213,16 +25213,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>99.12717094856998</v>
+        <v>374.2428136067138</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>84.86572528885959</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>10.60310146265698</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>133.1999654356588</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25402,13 +25402,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>393.628306438255</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>65.49777519317252</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>34.93326719123104</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>23.91186517730259</v>
       </c>
       <c r="G40" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>69.83578017384922</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>15.57541623208618</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>13.36505512097517</v>
       </c>
       <c r="E41" t="n">
-        <v>11.25136553696302</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>107.7648874569722</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>272.6207125031721</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T41" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>166.5846369658501</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>163.2212200695395</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7896876082805</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>71.41911212276489</v>
+        <v>220.5287506402694</v>
       </c>
       <c r="H44" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>47.50803287485465</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>81.18701050414296</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2706.665104000256</v>
+        <v>341347.7063048487</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2706.665104000247</v>
+        <v>341347.7063048487</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>341347.7063048488</v>
+        <v>341347.7063048487</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>341347.7063048487</v>
+        <v>341347.7063048488</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>341347.7063048489</v>
+        <v>341347.7063048488</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341347.7063048487</v>
+        <v>341347.7063048488</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341347.7063048488</v>
+        <v>341347.7063048487</v>
       </c>
     </row>
   </sheetData>
@@ -26328,19 +26328,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>773.8268907947324</v>
+        <v>97378.78047220712</v>
       </c>
       <c r="H2" t="n">
-        <v>773.8268907947323</v>
+        <v>97378.7804722071</v>
       </c>
       <c r="I2" t="n">
-        <v>97378.78047220713</v>
+        <v>97378.78047220716</v>
       </c>
       <c r="J2" t="n">
-        <v>97378.78047220713</v>
+        <v>97378.78047220716</v>
       </c>
       <c r="K2" t="n">
-        <v>97378.78047220709</v>
+        <v>97378.78047220715</v>
       </c>
       <c r="L2" t="n">
         <v>97378.78047220713</v>
@@ -26349,13 +26349,13 @@
         <v>97378.78047220715</v>
       </c>
       <c r="N2" t="n">
-        <v>97378.78047220717</v>
+        <v>97378.78047220712</v>
       </c>
       <c r="O2" t="n">
         <v>97378.78047220709</v>
       </c>
       <c r="P2" t="n">
-        <v>97378.7804722071</v>
+        <v>97378.78047220712</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2964.145017549302</v>
+        <v>371788.8610770355</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>357320.5222705446</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>785.1356606908305</v>
+        <v>100636.7904918564</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,19 +26432,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>97.82847180921107</v>
+        <v>13056.95251542856</v>
       </c>
       <c r="H4" t="n">
-        <v>97.82847180921111</v>
+        <v>13056.95251542856</v>
       </c>
       <c r="I4" t="n">
         <v>13056.95251542856</v>
       </c>
       <c r="J4" t="n">
-        <v>13056.95251542857</v>
+        <v>13056.95251542855</v>
       </c>
       <c r="K4" t="n">
-        <v>13056.95251542855</v>
+        <v>13056.95251542856</v>
       </c>
       <c r="L4" t="n">
         <v>13056.95251542856</v>
@@ -26456,7 +26456,7 @@
         <v>13056.95251542856</v>
       </c>
       <c r="O4" t="n">
-        <v>13056.95251542856</v>
+        <v>13056.95251542855</v>
       </c>
       <c r="P4" t="n">
         <v>13056.95251542856</v>
@@ -26484,10 +26484,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="H5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="I5" t="n">
         <v>32636.50261996421</v>
@@ -26496,7 +26496,7 @@
         <v>32636.50261996421</v>
       </c>
       <c r="K5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="L5" t="n">
         <v>32636.50261996421</v>
@@ -26511,7 +26511,7 @@
         <v>32636.5026199642</v>
       </c>
       <c r="P5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>-2544.548432409743</v>
+        <v>-320835.2866619958</v>
       </c>
       <c r="H6" t="n">
-        <v>419.596585139558</v>
+        <v>50953.57441503962</v>
       </c>
       <c r="I6" t="n">
-        <v>-305635.1969337302</v>
+        <v>50953.57441503966</v>
       </c>
       <c r="J6" t="n">
-        <v>51685.32533681436</v>
+        <v>50953.57441503967</v>
       </c>
       <c r="K6" t="n">
-        <v>51685.32533681433</v>
+        <v>50953.57441503964</v>
       </c>
       <c r="L6" t="n">
-        <v>51685.32533681436</v>
+        <v>50953.57441503963</v>
       </c>
       <c r="M6" t="n">
-        <v>51685.32533681437</v>
+        <v>50953.57441503964</v>
       </c>
       <c r="N6" t="n">
-        <v>51685.32533681441</v>
+        <v>50953.57441503961</v>
       </c>
       <c r="O6" t="n">
-        <v>50900.1896761235</v>
+        <v>-49683.21607681678</v>
       </c>
       <c r="P6" t="n">
-        <v>51685.32533681433</v>
+        <v>50953.57441503963</v>
       </c>
     </row>
   </sheetData>
@@ -26752,25 +26752,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="I3" t="n">
+        <v>330.7713854632871</v>
+      </c>
+      <c r="J3" t="n">
         <v>330.7713854632872</v>
-      </c>
-      <c r="J3" t="n">
-        <v>330.7713854632871</v>
       </c>
       <c r="K3" t="n">
         <v>330.7713854632871</v>
       </c>
       <c r="L3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="M3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="N3" t="n">
         <v>330.7713854632871</v>
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="H4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="I4" t="n">
         <v>418.1856318563248</v>
@@ -26816,7 +26816,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="K4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
         <v>418.1856318563248</v>
@@ -26831,7 +26831,7 @@
         <v>418.1856318563247</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>328.1090524645469</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260163</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817444</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P17" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497282</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S17" t="n">
-        <v>0.243891108377063</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04685170935471609</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05530620059647288</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I18" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723081</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M18" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628912</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P18" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975234</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770528</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S18" t="n">
-        <v>0.106367738204388</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636078</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775883</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3394256349377582</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K19" t="n">
-        <v>0.55778058563772</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819467</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783418</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N19" t="n">
-        <v>0.734672973242547</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559684</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449317</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097841</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S19" t="n">
-        <v>0.083667087845658</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313975</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817443</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K20" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N20" t="n">
-        <v>1.909735609237094</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O20" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P20" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497281</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S20" t="n">
-        <v>0.243891108377063</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04685170935471608</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873292</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0057265275821961</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05530620059647287</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I21" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723079</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794465</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975232</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3555470370770527</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S21" t="n">
-        <v>0.106367738204388</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636077</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775883</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3394256349377581</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>0.55778058563772</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819465</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425469</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559683</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449316</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097841</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08366708784565799</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02051305753127765</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32715,13 +32715,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
@@ -32733,13 +32733,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -32809,10 +32809,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
@@ -32821,7 +32821,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H25" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I25" t="n">
         <v>17.9375695592222</v>
@@ -32870,25 +32870,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R25" t="n">
         <v>26.81959463117078</v>
@@ -32900,7 +32900,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32952,13 +32952,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
@@ -32970,13 +32970,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
@@ -33046,10 +33046,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
@@ -33058,7 +33058,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H28" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I28" t="n">
         <v>17.9375695592222</v>
@@ -33107,25 +33107,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R28" t="n">
         <v>26.81959463117078</v>
@@ -33137,7 +33137,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -33426,13 +33426,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O32" t="n">
         <v>224.0452553667434</v>
@@ -33444,13 +33444,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T32" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U32" t="n">
         <v>0.1063787370334189</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H33" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I33" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K33" t="n">
         <v>114.8868877226589</v>
@@ -33520,10 +33520,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S33" t="n">
         <v>13.21525299468887</v>
@@ -33532,7 +33532,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H34" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I34" t="n">
         <v>17.9375695592222</v>
@@ -33581,25 +33581,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R34" t="n">
         <v>26.81959463117078</v>
@@ -33611,7 +33611,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J35" t="n">
         <v>112.8595291536268</v>
@@ -33663,13 +33663,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667434</v>
@@ -33681,13 +33681,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S35" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T35" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U35" t="n">
         <v>0.1063787370334189</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H36" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I36" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -33757,10 +33757,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S36" t="n">
         <v>13.21525299468887</v>
@@ -33769,7 +33769,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H37" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I37" t="n">
         <v>17.9375695592222</v>
@@ -33818,25 +33818,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R37" t="n">
         <v>26.81959463117078</v>
@@ -33848,7 +33848,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817444</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
-        <v>1.361442175632202</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237097</v>
+        <v>237.267799946444</v>
       </c>
       <c r="O17" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R17" t="n">
-        <v>0.672312664249727</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8193675710433224</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723081</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M18" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628911</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>1.093515604709008</v>
+        <v>153.1340173001364</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975241</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R18" t="n">
-        <v>3.262548922260276</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.262548922260276</v>
+        <v>42.17064040570463</v>
       </c>
       <c r="K19" t="n">
-        <v>3.262548922260276</v>
+        <v>278.3943580156868</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819462</v>
+        <v>88.67926619453436</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559677</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449325</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.933030394141655</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817448</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K20" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>1.87932614739721</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N20" t="n">
-        <v>1.909735609237094</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P20" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.155786985397851</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497288</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8193675710433255</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723078</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794465</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M21" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N21" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628911</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P21" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975223</v>
+        <v>133.9502340058266</v>
       </c>
       <c r="R21" t="n">
-        <v>3.262548922260276</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.262548922260276</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K22" t="n">
-        <v>3.262548922260276</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819462</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559677</v>
+        <v>262.2926534414112</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449307</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.933030394141657</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -36363,7 +36363,7 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
         <v>233.4896926139917</v>
@@ -36372,13 +36372,13 @@
         <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R23" t="n">
         <v>83.52891675219394</v>
@@ -36439,7 +36439,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L24" t="n">
         <v>154.4795984656607</v>
@@ -36457,7 +36457,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R24" t="n">
         <v>162.5299238926254</v>
@@ -36524,22 +36524,22 @@
         <v>88.67926619453442</v>
       </c>
       <c r="M25" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N25" t="n">
+        <v>91.27663494268052</v>
+      </c>
+      <c r="O25" t="n">
+        <v>262.2926534414116</v>
+      </c>
+      <c r="P25" t="n">
         <v>418.1856318563248</v>
-      </c>
-      <c r="N25" t="n">
-        <v>91.27663494268063</v>
-      </c>
-      <c r="O25" t="n">
-        <v>84.30874592103601</v>
-      </c>
-      <c r="P25" t="n">
-        <v>271.4837599719076</v>
       </c>
       <c r="Q25" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K26" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
         <v>233.4896926139916</v>
@@ -36609,16 +36609,16 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P26" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L27" t="n">
         <v>154.4795984656607</v>
@@ -36688,16 +36688,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P27" t="n">
-        <v>152.6643685683466</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
         <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,10 +36758,10 @@
         <v>69.29931649542308</v>
       </c>
       <c r="L28" t="n">
-        <v>162.11615811347</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M28" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
         <v>418.1856318563248</v>
@@ -36770,13 +36770,13 @@
         <v>418.1856318563248</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.9464792049564</v>
+        <v>102.0242155937299</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J29" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K29" t="n">
         <v>169.1471783864346</v>
@@ -36843,10 +36843,10 @@
         <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P29" t="n">
         <v>191.2174419853368</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J30" t="n">
         <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
-        <v>114.8868877226589</v>
+        <v>132.1612391709032</v>
       </c>
       <c r="L30" t="n">
         <v>154.4795984656607</v>
@@ -36928,7 +36928,7 @@
         <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
-        <v>153.1340173001363</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
         <v>418.1856318563248</v>
@@ -36995,7 +36995,7 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L31" t="n">
-        <v>266.6631737149095</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M31" t="n">
         <v>93.49985245153209</v>
@@ -37004,13 +37004,13 @@
         <v>91.27663494268052</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P31" t="n">
-        <v>418.1856318563248</v>
+        <v>262.2926534414116</v>
       </c>
       <c r="Q31" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
         <v>5.615951549488944</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -37074,22 +37074,22 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
         <v>83.52891675219394</v>
@@ -37147,28 +37147,28 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J33" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K33" t="n">
-        <v>131.6915904391128</v>
+        <v>132.1612391709031</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N33" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P33" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R33" t="n">
         <v>162.5299238926254</v>
@@ -37232,25 +37232,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453442</v>
+        <v>288.0223292450721</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>262.2926534414116</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P34" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q34" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R34" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K35" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J36" t="n">
-        <v>84.49271384696755</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -37399,13 +37399,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P36" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>418.1856318563248</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R36" t="n">
         <v>162.5299238926254</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L37" t="n">
-        <v>288.0223292450721</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M37" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N37" t="n">
+        <v>300.3716764629446</v>
+      </c>
+      <c r="O37" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N37" t="n">
-        <v>91.27663494268063</v>
-      </c>
-      <c r="O37" t="n">
-        <v>84.30874592103578</v>
-      </c>
       <c r="P37" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q37" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R37" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J38" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K38" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M38" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667435</v>
@@ -37566,7 +37566,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.6232914195059</v>
+        <v>107.6232914195061</v>
       </c>
       <c r="R39" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8331089915197</v>
+        <v>118.7796841360503</v>
       </c>
       <c r="L40" t="n">
-        <v>266.6631737149102</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M40" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q40" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R40" t="n">
         <v>5.615951549488944</v>
@@ -37788,13 +37788,13 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P41" t="n">
         <v>191.2174419853368</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.82274801921518</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J42" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37873,7 +37873,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P42" t="n">
         <v>135.8596658518925</v>
@@ -37940,22 +37940,22 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K43" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L43" t="n">
-        <v>266.6631737149097</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103578</v>
       </c>
       <c r="P43" t="n">
-        <v>418.1856318563248</v>
+        <v>222.10855555436</v>
       </c>
       <c r="Q43" t="n">
         <v>219.8381709871101</v>
@@ -38022,10 +38022,10 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
         <v>237.2677999464443</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J45" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
         <v>154.4795984656607</v>
@@ -38110,13 +38110,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P45" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195057</v>
       </c>
       <c r="R45" t="n">
         <v>162.5299238926254</v>
@@ -38180,22 +38180,22 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>266.6631737149099</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103578</v>
       </c>
       <c r="P46" t="n">
-        <v>418.1856318563248</v>
+        <v>269.260542463056</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
         <v>5.615951549488944</v>
